--- a/output/q_tipo_anestesia.xlsx
+++ b/output/q_tipo_anestesia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -903,13 +903,13 @@
         <v>46.0</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -917,13 +917,13 @@
         <v>47.0</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -931,13 +931,13 @@
         <v>48.0</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -945,130 +945,130 @@
         <v>49.0</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1082,21 +1082,21 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -1110,105 +1110,105 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -1222,29 +1222,155 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
         <v>18</v>
       </c>
     </row>

--- a/output/q_tipo_anestesia.xlsx
+++ b/output/q_tipo_anestesia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -1029,13 +1029,13 @@
         <v>55.0</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -1043,13 +1043,13 @@
         <v>56.0</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -1057,13 +1057,13 @@
         <v>57.0</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -1071,27 +1071,27 @@
         <v>58.0</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -1099,32 +1099,32 @@
         <v>59.0</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -1166,150 +1166,150 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
@@ -1320,49 +1320,49 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1371,6 +1371,258 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
         <v>18</v>
       </c>
     </row>
